--- a/AAPORConferenceDetails.xlsx
+++ b/AAPORConferenceDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\AAPOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Github\AAPORConferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9FAD44C7-3EE3-4314-AAE1-452FF3075B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3A889-48BD-48A4-A786-C76CA5A0EE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-465" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAPOR Conferences" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>Central City, Colorado Opera House and Tel</t>
   </si>
@@ -485,12 +485,18 @@
   </si>
   <si>
     <t>Relevant POQ References 2</t>
+  </si>
+  <si>
+    <t>Sheraton New Orleans, New Orleans, Louisiana</t>
+  </si>
+  <si>
+    <t>Sheraton Denver Downtown Hotel, Denver, Colorado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1367,11 +1373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,99 +2518,125 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D43" r:id="rId1"/>
-    <hyperlink ref="D49" r:id="rId2"/>
-    <hyperlink ref="D47" r:id="rId3"/>
-    <hyperlink ref="D53" r:id="rId4"/>
-    <hyperlink ref="D58" r:id="rId5"/>
-    <hyperlink ref="D56" r:id="rId6"/>
-    <hyperlink ref="E62" r:id="rId7"/>
-    <hyperlink ref="D57" r:id="rId8"/>
-    <hyperlink ref="D55" r:id="rId9"/>
-    <hyperlink ref="D59" r:id="rId10"/>
-    <hyperlink ref="D54" r:id="rId11"/>
-    <hyperlink ref="D65" r:id="rId12"/>
-    <hyperlink ref="D62" r:id="rId13"/>
-    <hyperlink ref="D45" r:id="rId14"/>
-    <hyperlink ref="D46" r:id="rId15"/>
-    <hyperlink ref="E54" r:id="rId16"/>
-    <hyperlink ref="D50" r:id="rId17"/>
-    <hyperlink ref="D51" r:id="rId18"/>
-    <hyperlink ref="E49" r:id="rId19"/>
-    <hyperlink ref="E46" r:id="rId20"/>
-    <hyperlink ref="E60" r:id="rId21"/>
-    <hyperlink ref="E63" r:id="rId22"/>
-    <hyperlink ref="E56" r:id="rId23"/>
-    <hyperlink ref="E47" r:id="rId24"/>
-    <hyperlink ref="E53" r:id="rId25"/>
-    <hyperlink ref="D52" r:id="rId26"/>
-    <hyperlink ref="E52" r:id="rId27"/>
-    <hyperlink ref="E57" r:id="rId28"/>
-    <hyperlink ref="E59" r:id="rId29"/>
-    <hyperlink ref="E58" r:id="rId30"/>
-    <hyperlink ref="D44" r:id="rId31"/>
-    <hyperlink ref="E55" r:id="rId32"/>
-    <hyperlink ref="E51" r:id="rId33"/>
-    <hyperlink ref="E64" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="E45" r:id="rId36"/>
-    <hyperlink ref="D48" r:id="rId37"/>
-    <hyperlink ref="D37" r:id="rId38"/>
-    <hyperlink ref="D39" r:id="rId39"/>
-    <hyperlink ref="D33" r:id="rId40"/>
-    <hyperlink ref="E50" r:id="rId41"/>
-    <hyperlink ref="D38" r:id="rId42"/>
-    <hyperlink ref="D60" r:id="rId43"/>
-    <hyperlink ref="E61" r:id="rId44"/>
-    <hyperlink ref="D61" r:id="rId45" display="https://doi.org/10.1093/poq/57.3.448"/>
-    <hyperlink ref="D64" r:id="rId46"/>
-    <hyperlink ref="D63" r:id="rId47" display="https://doi.org/10.1093/poq/nfm026"/>
-    <hyperlink ref="E48" r:id="rId48"/>
-    <hyperlink ref="E44" r:id="rId49" display="https://doi.org/10.1086/269123"/>
-    <hyperlink ref="E43" r:id="rId50"/>
-    <hyperlink ref="D35" r:id="rId51"/>
-    <hyperlink ref="E35" r:id="rId52"/>
-    <hyperlink ref="D40" r:id="rId53"/>
-    <hyperlink ref="D42" r:id="rId54"/>
-    <hyperlink ref="E42" r:id="rId55"/>
-    <hyperlink ref="D41" r:id="rId56"/>
-    <hyperlink ref="E41" r:id="rId57"/>
-    <hyperlink ref="E38" r:id="rId58"/>
-    <hyperlink ref="D13" r:id="rId59"/>
-    <hyperlink ref="D14" r:id="rId60"/>
-    <hyperlink ref="D12" r:id="rId61"/>
-    <hyperlink ref="D7" r:id="rId62"/>
-    <hyperlink ref="D8" r:id="rId63"/>
-    <hyperlink ref="D15" r:id="rId64"/>
-    <hyperlink ref="E15" r:id="rId65"/>
-    <hyperlink ref="D16" r:id="rId66"/>
-    <hyperlink ref="D17" r:id="rId67"/>
-    <hyperlink ref="E32" r:id="rId68"/>
-    <hyperlink ref="D18" r:id="rId69"/>
-    <hyperlink ref="D19" r:id="rId70"/>
-    <hyperlink ref="D20" r:id="rId71"/>
-    <hyperlink ref="D21" r:id="rId72"/>
-    <hyperlink ref="D22" r:id="rId73"/>
-    <hyperlink ref="D24" r:id="rId74"/>
-    <hyperlink ref="D23" r:id="rId75"/>
-    <hyperlink ref="D26" r:id="rId76"/>
-    <hyperlink ref="D30" r:id="rId77"/>
-    <hyperlink ref="D28" r:id="rId78"/>
-    <hyperlink ref="D6" r:id="rId79"/>
-    <hyperlink ref="D29" r:id="rId80"/>
-    <hyperlink ref="D25" r:id="rId81"/>
-    <hyperlink ref="D27" r:id="rId82"/>
-    <hyperlink ref="D31" r:id="rId83"/>
-    <hyperlink ref="D32" r:id="rId84"/>
-    <hyperlink ref="D5" r:id="rId85"/>
-    <hyperlink ref="D4" r:id="rId86"/>
-    <hyperlink ref="D10" r:id="rId87"/>
-    <hyperlink ref="D9" r:id="rId88"/>
-    <hyperlink ref="D11" r:id="rId89"/>
-    <hyperlink ref="D34" r:id="rId90"/>
-    <hyperlink ref="D66" r:id="rId91"/>
+    <hyperlink ref="D43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D47" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D53" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D58" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D56" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E62" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D55" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D65" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D45" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D51" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E56" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D52" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E59" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E58" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E55" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E64" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D33" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D38" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D61" r:id="rId45" display="https://doi.org/10.1093/poq/57.3.448" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D63" r:id="rId47" display="https://doi.org/10.1093/poq/nfm026" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E44" r:id="rId49" display="https://doi.org/10.1086/269123" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E43" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E35" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D40" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D42" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E42" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D41" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E38" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D13" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D12" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D15" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D16" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D17" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D18" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D19" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D20" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D21" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D22" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D24" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D23" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D26" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D30" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D28" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D6" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D29" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D25" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D27" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D32" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D5" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D4" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D9" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D11" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D34" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D66" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId92"/>
